--- a/Team-Data/2014-15/4-5-2014-15.xlsx
+++ b/Team-Data/2014-15/4-5-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -771,13 +838,13 @@
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN2" t="n">
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>24</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -804,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -938,16 +1005,16 @@
         <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ3" t="n">
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
@@ -974,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -989,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1126,7 +1193,7 @@
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
@@ -1153,7 +1220,7 @@
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
@@ -1323,19 +1390,19 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT5" t="n">
         <v>8</v>
@@ -1353,10 +1420,10 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
         <v>7</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="n">
         <v>46</v>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>0.597</v>
+        <v>0.605</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1418,43 +1485,43 @@
         <v>0.442</v>
       </c>
       <c r="L6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M6" t="n">
         <v>22</v>
       </c>
       <c r="N6" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O6" t="n">
         <v>19.8</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
         <v>0.785</v>
       </c>
       <c r="R6" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S6" t="n">
         <v>33.9</v>
       </c>
       <c r="T6" t="n">
-        <v>45.6</v>
+        <v>45.7</v>
       </c>
       <c r="U6" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V6" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W6" t="n">
         <v>6.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
         <v>5.4</v>
@@ -1466,22 +1533,22 @@
         <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
@@ -1514,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1535,13 +1602,13 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -1576,22 +1643,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="n">
         <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.649</v>
+        <v>0.645</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J7" t="n">
         <v>82.2</v>
@@ -1600,28 +1667,28 @@
         <v>0.459</v>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="M7" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O7" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P7" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="R7" t="n">
         <v>11.1</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
         <v>42.9</v>
@@ -1648,16 +1715,16 @@
         <v>20.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="AC7" t="n">
         <v>5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
@@ -1666,25 +1733,25 @@
         <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
@@ -1693,16 +1760,16 @@
         <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
@@ -1711,16 +1778,16 @@
         <v>14</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
         <v>46</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.605</v>
+        <v>0.597</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,13 +1843,13 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.461</v>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M8" t="n">
         <v>25.6</v>
@@ -1794,19 +1861,19 @@
         <v>16.8</v>
       </c>
       <c r="P8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R8" t="n">
         <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
         <v>22.4</v>
@@ -1827,7 +1894,7 @@
         <v>20.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB8" t="n">
         <v>104.6</v>
@@ -1836,19 +1903,19 @@
         <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1866,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
         <v>16</v>
@@ -1875,13 +1942,13 @@
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR8" t="n">
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>24</v>
@@ -1890,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-4</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2051,7 +2118,7 @@
         <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>8</v>
@@ -2078,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2224,7 +2291,7 @@
         <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM10" t="n">
         <v>10</v>
@@ -2233,7 +2300,7 @@
         <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
         <v>63</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.829</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2334,25 +2401,25 @@
         <v>27.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.395</v>
+        <v>0.397</v>
       </c>
       <c r="O11" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P11" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R11" t="n">
         <v>10.4</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
         <v>27.4</v>
@@ -2373,16 +2440,16 @@
         <v>19.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.7</v>
+        <v>109.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2415,19 +2482,19 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR11" t="n">
         <v>20</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>5</v>
@@ -2436,13 +2503,13 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW11" t="n">
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -2501,13 +2568,13 @@
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L12" t="n">
         <v>11.5</v>
@@ -2516,16 +2583,16 @@
         <v>33.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P12" t="n">
         <v>25.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.719</v>
+        <v>0.721</v>
       </c>
       <c r="R12" t="n">
         <v>11.9</v>
@@ -2543,7 +2610,7 @@
         <v>16.8</v>
       </c>
       <c r="W12" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
         <v>4.8</v>
@@ -2552,19 +2619,19 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA12" t="n">
         <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>3</v>
@@ -2585,7 +2652,7 @@
         <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2612,7 +2679,7 @@
         <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2633,7 +2700,7 @@
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" t="n">
         <v>43</v>
       </c>
       <c r="G13" t="n">
-        <v>0.442</v>
+        <v>0.434</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2692,37 +2759,37 @@
         <v>0.438</v>
       </c>
       <c r="L13" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O13" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P13" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R13" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S13" t="n">
         <v>34.3</v>
       </c>
       <c r="T13" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U13" t="n">
         <v>21.3</v>
       </c>
       <c r="V13" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W13" t="n">
         <v>6.2</v>
@@ -2740,25 +2807,25 @@
         <v>21.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2776,19 +2843,19 @@
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP13" t="n">
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS13" t="n">
         <v>5</v>
@@ -2797,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
         <v>15</v>
@@ -2809,19 +2876,19 @@
         <v>20</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
         <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,28 +2935,28 @@
         <v>39.4</v>
       </c>
       <c r="J14" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="M14" t="n">
         <v>26.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.379</v>
+        <v>0.376</v>
       </c>
       <c r="O14" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P14" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.708</v>
+        <v>0.709</v>
       </c>
       <c r="R14" t="n">
         <v>9.5</v>
@@ -2904,13 +2971,13 @@
         <v>24.7</v>
       </c>
       <c r="V14" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W14" t="n">
         <v>7.8</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
         <v>3</v>
@@ -2919,19 +2986,19 @@
         <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB14" t="n">
         <v>106.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2943,10 +3010,10 @@
         <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2988,7 +3055,7 @@
         <v>14</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -3050,28 +3117,28 @@
         <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="K15" t="n">
         <v>0.436</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.1</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.74</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
@@ -3083,10 +3150,10 @@
         <v>44</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W15" t="n">
         <v>7.2</v>
@@ -3098,16 +3165,16 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
         <v>29</v>
@@ -3128,7 +3195,7 @@
         <v>18</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
         <v>25</v>
@@ -3140,16 +3207,16 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
@@ -3158,10 +3225,10 @@
         <v>13</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
@@ -3170,13 +3237,13 @@
         <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,10 +3374,10 @@
         <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>9</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" t="n">
         <v>34</v>
       </c>
       <c r="F17" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" t="n">
-        <v>0.442</v>
+        <v>0.447</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3420,25 +3487,25 @@
         <v>0.456</v>
       </c>
       <c r="L17" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M17" t="n">
         <v>20.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="O17" t="n">
         <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R17" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S17" t="n">
         <v>29.8</v>
@@ -3447,7 +3514,7 @@
         <v>38.7</v>
       </c>
       <c r="U17" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V17" t="n">
         <v>15</v>
@@ -3462,31 +3529,31 @@
         <v>4.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA17" t="n">
         <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.8</v>
+        <v>-2.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
@@ -3504,10 +3571,10 @@
         <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3528,10 +3595,10 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
         <v>22</v>
@@ -3540,10 +3607,10 @@
         <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3689,7 +3756,7 @@
         <v>8</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>25</v>
@@ -3716,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY18" t="n">
         <v>14</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
         <v>29</v>
@@ -3856,7 +3923,7 @@
         <v>24</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3880,7 +3947,7 @@
         <v>7</v>
       </c>
       <c r="AR19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3898,10 +3965,10 @@
         <v>9</v>
       </c>
       <c r="AX19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY19" t="n">
         <v>27</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>26</v>
       </c>
       <c r="AZ19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" t="n">
         <v>35</v>
       </c>
       <c r="G20" t="n">
-        <v>0.533</v>
+        <v>0.539</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,10 +4027,10 @@
         <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.5</v>
+        <v>82.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>7.2</v>
@@ -3972,25 +4039,25 @@
         <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O20" t="n">
         <v>16.4</v>
       </c>
       <c r="P20" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.761</v>
+        <v>0.755</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
         <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U20" t="n">
         <v>22.1</v>
@@ -4002,31 +4069,31 @@
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
         <v>14</v>
@@ -4038,10 +4105,10 @@
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4056,19 +4123,19 @@
         <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="n">
         <v>62</v>
       </c>
       <c r="G21" t="n">
-        <v>0.195</v>
+        <v>0.184</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4142,49 +4209,49 @@
         <v>35.2</v>
       </c>
       <c r="J21" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L21" t="n">
         <v>6.8</v>
       </c>
       <c r="M21" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O21" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="P21" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S21" t="n">
         <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U21" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V21" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
       </c>
       <c r="X21" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Y21" t="n">
         <v>4.4</v>
@@ -4193,16 +4260,16 @@
         <v>21.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>91.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9.4</v>
+        <v>-9.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4214,25 +4281,25 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
         <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4256,13 +4323,13 @@
         <v>19</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW21" t="n">
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
         <v>7</v>
@@ -4271,7 +4338,7 @@
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" t="n">
         <v>42</v>
       </c>
       <c r="F22" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="n">
-        <v>0.545</v>
+        <v>0.553</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,19 +4391,19 @@
         <v>38.6</v>
       </c>
       <c r="J22" t="n">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="K22" t="n">
         <v>0.447</v>
       </c>
       <c r="L22" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.34</v>
+        <v>0.337</v>
       </c>
       <c r="O22" t="n">
         <v>18.7</v>
@@ -4345,7 +4412,7 @@
         <v>24.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R22" t="n">
         <v>12.6</v>
@@ -4354,13 +4421,13 @@
         <v>34.9</v>
       </c>
       <c r="T22" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="U22" t="n">
         <v>20.7</v>
       </c>
       <c r="V22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W22" t="n">
         <v>7.2</v>
@@ -4372,19 +4439,19 @@
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="AC22" t="n">
         <v>2.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4396,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4438,7 +4505,7 @@
         <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -4488,40 +4555,40 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" t="n">
         <v>24</v>
       </c>
       <c r="F23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" t="n">
-        <v>0.316</v>
+        <v>0.312</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J23" t="n">
         <v>82.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="P23" t="n">
         <v>19.1</v>
@@ -4530,43 +4597,43 @@
         <v>0.73</v>
       </c>
       <c r="R23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
         <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
         <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4578,7 +4645,7 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>15</v>
@@ -4587,10 +4654,10 @@
         <v>18</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4608,16 +4675,16 @@
         <v>25</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT23" t="n">
         <v>25</v>
       </c>
       <c r="AU23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
         <v>20</v>
@@ -4629,10 +4696,10 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" t="n">
         <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" t="n">
-        <v>0.231</v>
+        <v>0.234</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="J24" t="n">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.408</v>
+        <v>0.409</v>
       </c>
       <c r="L24" t="n">
         <v>8.4</v>
       </c>
       <c r="M24" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="N24" t="n">
         <v>0.324</v>
       </c>
       <c r="O24" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="P24" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q24" t="n">
         <v>0.67</v>
       </c>
       <c r="R24" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="T24" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U24" t="n">
         <v>20.5</v>
       </c>
       <c r="V24" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="W24" t="n">
         <v>9.699999999999999</v>
@@ -4733,7 +4800,7 @@
         <v>6.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z24" t="n">
         <v>21.5</v>
@@ -4766,22 +4833,22 @@
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN24" t="n">
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
         <v>10</v>
@@ -4790,13 +4857,13 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU24" t="n">
         <v>25</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ24" t="n">
         <v>25</v>
       </c>
       <c r="BA24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4942,7 +5009,7 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>9</v>
@@ -4978,13 +5045,13 @@
         <v>12</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>27</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW25" t="n">
         <v>6</v>
@@ -5005,7 +5072,7 @@
         <v>8</v>
       </c>
       <c r="BC25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
@@ -5124,25 +5191,25 @@
         <v>6</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>8</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK26" t="n">
         <v>17</v>
       </c>
       <c r="AL26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5163,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="AU26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
@@ -5172,7 +5239,7 @@
         <v>27</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5181,10 +5248,10 @@
         <v>2</v>
       </c>
       <c r="BA26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" t="n">
         <v>26</v>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" t="n">
-        <v>0.342</v>
+        <v>0.347</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J27" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K27" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L27" t="n">
         <v>5.5</v>
@@ -5249,34 +5316,34 @@
         <v>0.339</v>
       </c>
       <c r="O27" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="P27" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R27" t="n">
         <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T27" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U27" t="n">
         <v>20.1</v>
       </c>
       <c r="V27" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W27" t="n">
         <v>6.6</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
         <v>6.3</v>
@@ -5294,13 +5361,13 @@
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5333,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -5413,28 +5480,28 @@
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.464</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O28" t="n">
         <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q28" t="n">
         <v>0.779</v>
@@ -5443,40 +5510,40 @@
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB28" t="n">
         <v>102.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5491,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ28" t="n">
         <v>12</v>
@@ -5506,34 +5573,34 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
         <v>5</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
       </c>
       <c r="AV28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW28" t="n">
         <v>11</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>10</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
@@ -5548,7 +5615,7 @@
         <v>20</v>
       </c>
       <c r="BB28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5670,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5709,10 +5776,10 @@
         <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW29" t="n">
         <v>18</v>
@@ -5724,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="n">
         <v>42</v>
       </c>
       <c r="G30" t="n">
-        <v>0.455</v>
+        <v>0.447</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J30" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L30" t="n">
         <v>7.3</v>
@@ -5798,7 +5865,7 @@
         <v>16.9</v>
       </c>
       <c r="P30" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q30" t="n">
         <v>0.723</v>
@@ -5810,16 +5877,16 @@
         <v>31.9</v>
       </c>
       <c r="T30" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U30" t="n">
         <v>19.8</v>
       </c>
       <c r="V30" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W30" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X30" t="n">
         <v>6</v>
@@ -5834,22 +5901,22 @@
         <v>19.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AC30" t="n">
         <v>0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5864,7 +5931,7 @@
         <v>19</v>
       </c>
       <c r="AL30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
@@ -5894,13 +5961,13 @@
         <v>30</v>
       </c>
       <c r="AV30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW30" t="n">
         <v>17</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,13 +6101,13 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
         <v>5</v>
@@ -6055,19 +6122,19 @@
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
         <v>23</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
@@ -6076,19 +6143,19 @@
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
         <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
@@ -6097,7 +6164,7 @@
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-5-2014-15</t>
+          <t>2015-04-05</t>
         </is>
       </c>
     </row>
